--- a/02_datos_crudos/01_01_mortalidad/INEGI_exporta_MORT_MATERNA.xlsx
+++ b/02_datos_crudos/01_01_mortalidad/INEGI_exporta_MORT_MATERNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_ips_private/02_datos_crudos/01_01_mortalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5528EE0E-8AAB-214C-8F7C-6B9E6A253648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E495750-DA7E-7843-8AE8-21AEF89A1A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="201">
   <si>
     <t>Defunciones registradas (mortalidad general)</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>FUENTE: INEGI. Estadísticas de mortalidad.</t>
+  </si>
+  <si>
+    <t>584</t>
   </si>
 </sst>
 </file>
@@ -681,9 +684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -721,7 +724,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -827,7 +830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -977,9 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -987,7 +992,7 @@
     <col min="3" max="23" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1019,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1046,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1073,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1092,7 +1097,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1162,8 +1167,11 @@
       <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1233,8 +1241,11 @@
       <c r="W6" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1304,8 +1315,11 @@
       <c r="W7" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1375,8 +1389,11 @@
       <c r="W8" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1446,8 +1463,11 @@
       <c r="W9" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1517,8 +1537,11 @@
       <c r="W10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1588,8 +1611,11 @@
       <c r="W11" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1659,8 +1685,11 @@
       <c r="W12" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1730,8 +1759,11 @@
       <c r="W13" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1801,8 +1833,11 @@
       <c r="W14" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -1872,8 +1907,11 @@
       <c r="W15" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1943,8 +1981,11 @@
       <c r="W16" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2014,8 +2055,11 @@
       <c r="W17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2085,8 +2129,11 @@
       <c r="W18" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2156,8 +2203,11 @@
       <c r="W19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2277,11 @@
       <c r="W20" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2298,8 +2351,11 @@
       <c r="W21" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -2369,8 +2425,11 @@
       <c r="W22" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2440,8 +2499,11 @@
       <c r="W23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2511,8 +2573,11 @@
       <c r="W24" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2582,8 +2647,11 @@
       <c r="W25" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2653,8 +2721,11 @@
       <c r="W26" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2724,8 +2795,11 @@
       <c r="W27" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2795,8 +2869,11 @@
       <c r="W28" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2866,8 +2943,11 @@
       <c r="W29" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2937,8 +3017,11 @@
       <c r="W30" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -3008,8 +3091,11 @@
       <c r="W31" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -3079,8 +3165,11 @@
       <c r="W32" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3150,8 +3239,11 @@
       <c r="W33" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3221,8 +3313,11 @@
       <c r="W34" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -3292,8 +3387,11 @@
       <c r="W35" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3363,8 +3461,11 @@
       <c r="W36" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -3434,8 +3535,11 @@
       <c r="W37" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -3505,8 +3609,11 @@
       <c r="W38" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -3576,8 +3683,11 @@
       <c r="W39" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -3648,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3672,7 +3782,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3696,7 +3806,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3720,7 +3830,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>199</v>
       </c>
@@ -3747,7 +3857,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
